--- a/Team-Data/2020-21/1-2-2020-21.xlsx
+++ b/Team-Data/2020-21/1-2-2020-21.xlsx
@@ -2222,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="CU2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CV2" t="n">
         <v>7</v>
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="DX2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="DY2" t="n">
         <v>2</v>
@@ -2803,7 +2803,7 @@
         <v>4</v>
       </c>
       <c r="JZ2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="KA2" t="n">
         <v>3</v>
@@ -3049,16 +3049,16 @@
         <v>108</v>
       </c>
       <c r="BN3" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="BO3" t="n">
-        <v>107.4</v>
+        <v>107.2</v>
       </c>
       <c r="BP3" t="n">
-        <v>109.7</v>
+        <v>109.5</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="BR3" t="n">
         <v>-0.8</v>
@@ -3073,13 +3073,13 @@
         <v>16.5</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.279</v>
+        <v>0.276</v>
       </c>
       <c r="BW3" t="n">
         <v>0.707</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.489</v>
+        <v>0.487</v>
       </c>
       <c r="BY3" t="n">
         <v>0.15</v>
@@ -3091,16 +3091,16 @@
         <v>0.5639999999999999</v>
       </c>
       <c r="CB3" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="CC3" t="n">
-        <v>101</v>
+        <v>101.17</v>
       </c>
       <c r="CD3" t="n">
-        <v>84.17</v>
+        <v>84.31</v>
       </c>
       <c r="CE3" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="CF3" t="n">
         <v>0.501</v>
@@ -3139,13 +3139,13 @@
         <v>22</v>
       </c>
       <c r="CR3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CS3" t="n">
         <v>25</v>
       </c>
       <c r="CT3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CU3" t="n">
         <v>13</v>
@@ -3203,7 +3203,7 @@
         <v>0.15</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.279</v>
+        <v>0.276</v>
       </c>
       <c r="DM3" t="n">
         <v>0.549</v>
@@ -3212,7 +3212,7 @@
         <v>0.241</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.171</v>
+        <v>0.173</v>
       </c>
       <c r="DP3" t="n">
         <v>0.293</v>
@@ -3242,7 +3242,7 @@
         <v>13</v>
       </c>
       <c r="DY3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="DZ3" t="n">
         <v>24</v>
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="HI3" t="n">
-        <v>109.7</v>
+        <v>109.5</v>
       </c>
       <c r="HJ3" t="n">
         <v>31.3</v>
@@ -3648,16 +3648,16 @@
         <v>9.699999999999999</v>
       </c>
       <c r="IY3" t="n">
-        <v>33.8</v>
+        <v>34</v>
       </c>
       <c r="IZ3" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="JA3" t="n">
         <v>22.3</v>
       </c>
       <c r="JB3" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="JC3" t="n">
         <v>7.7</v>
@@ -3726,7 +3726,7 @@
         <v>16</v>
       </c>
       <c r="JY3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="JZ3" t="n">
         <v>9</v>
@@ -3735,7 +3735,7 @@
         <v>5</v>
       </c>
       <c r="KB3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="KC3" t="n">
         <v>14</v>
@@ -4843,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
         <v>4</v>
@@ -9386,16 +9386,16 @@
         <v>12.4</v>
       </c>
       <c r="S10" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="T10" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="U10" t="n">
         <v>23.2</v>
       </c>
       <c r="V10" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
@@ -9467,13 +9467,13 @@
         <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU10" t="n">
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AW10" t="n">
         <v>19</v>
@@ -9528,19 +9528,19 @@
         <v>250</v>
       </c>
       <c r="BM10" t="n">
-        <v>100.8</v>
+        <v>100.6</v>
       </c>
       <c r="BN10" t="n">
-        <v>103.2</v>
+        <v>103</v>
       </c>
       <c r="BO10" t="n">
         <v>107.5</v>
       </c>
       <c r="BP10" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-6.7</v>
+        <v>-6.9</v>
       </c>
       <c r="BR10" t="n">
         <v>-5.6</v>
@@ -9549,7 +9549,7 @@
         <v>0.583</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="BU10" t="n">
         <v>16.1</v>
@@ -9558,13 +9558,13 @@
         <v>0.282</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.76</v>
+        <v>0.764</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.503</v>
+        <v>0.505</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.154</v>
+        <v>0.156</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.489</v>
@@ -9573,16 +9573,16 @@
         <v>0.522</v>
       </c>
       <c r="CB10" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="CC10" t="n">
-        <v>101.18</v>
+        <v>101.38</v>
       </c>
       <c r="CD10" t="n">
-        <v>84.31999999999999</v>
+        <v>84.48</v>
       </c>
       <c r="CE10" t="n">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="CF10" t="n">
         <v>0.453</v>
@@ -9606,7 +9606,7 @@
         <v>24</v>
       </c>
       <c r="CM10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CN10" t="n">
         <v>25</v>
@@ -9615,7 +9615,7 @@
         <v>19</v>
       </c>
       <c r="CP10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CQ10" t="n">
         <v>24</v>
@@ -9630,7 +9630,7 @@
         <v>11</v>
       </c>
       <c r="CU10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CV10" t="n">
         <v>27</v>
@@ -9639,7 +9639,7 @@
         <v>28</v>
       </c>
       <c r="CX10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="CY10" t="n">
         <v>28</v>
@@ -9682,7 +9682,7 @@
         <v>0.241</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.154</v>
+        <v>0.156</v>
       </c>
       <c r="DL10" t="n">
         <v>0.282</v>
@@ -9694,10 +9694,10 @@
         <v>0.327</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.159</v>
+        <v>0.158</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.24</v>
+        <v>0.236</v>
       </c>
       <c r="DQ10" t="n">
         <v>18</v>
@@ -9721,7 +9721,7 @@
         <v>18</v>
       </c>
       <c r="DX10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="DY10" t="n">
         <v>8</v>
@@ -10000,13 +10000,13 @@
         <v>50</v>
       </c>
       <c r="HI10" t="n">
-        <v>108.9</v>
+        <v>108.7</v>
       </c>
       <c r="HJ10" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.76</v>
+        <v>0.764</v>
       </c>
       <c r="HL10" t="n">
         <v>7.6</v>
@@ -10042,7 +10042,7 @@
         <v>1</v>
       </c>
       <c r="HW10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="HX10" t="n">
         <v>14</v>
@@ -11143,7 +11143,7 @@
         <v>14</v>
       </c>
       <c r="KB11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="KC11" t="n">
         <v>18</v>
@@ -11491,7 +11491,7 @@
         <v>4</v>
       </c>
       <c r="CX12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CY12" t="n">
         <v>11</v>
@@ -12405,7 +12405,7 @@
         <v>14</v>
       </c>
       <c r="CT13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="CU13" t="n">
         <v>5</v>
@@ -14097,13 +14097,13 @@
         <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU15" t="n">
         <v>6</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW15" t="n">
         <v>26</v>
@@ -14251,7 +14251,7 @@
         <v>7</v>
       </c>
       <c r="CR15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="CS15" t="n">
         <v>5</v>
@@ -14354,7 +14354,7 @@
         <v>23</v>
       </c>
       <c r="DY15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="DZ15" t="n">
         <v>8</v>
@@ -16088,7 +16088,7 @@
         <v>27</v>
       </c>
       <c r="CM17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CN17" t="n">
         <v>26</v>
@@ -16524,7 +16524,7 @@
         <v>9</v>
       </c>
       <c r="HW17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="HX17" t="n">
         <v>21</v>
@@ -18733,7 +18733,7 @@
         <v>27</v>
       </c>
       <c r="AV20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW20" t="n">
         <v>9</v>
@@ -20751,7 +20751,7 @@
         <v>20</v>
       </c>
       <c r="CX22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CY22" t="n">
         <v>24</v>
@@ -25363,7 +25363,7 @@
         <v>23</v>
       </c>
       <c r="CR27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CS27" t="n">
         <v>1</v>
@@ -25466,7 +25466,7 @@
         <v>9</v>
       </c>
       <c r="DY27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="DZ27" t="n">
         <v>23</v>
@@ -25953,7 +25953,7 @@
         <v>15</v>
       </c>
       <c r="JZ27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="KA27" t="n">
         <v>24</v>
@@ -28135,7 +28135,7 @@
         <v>28</v>
       </c>
       <c r="CP30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="CQ30" t="n">
         <v>27</v>
@@ -28919,7 +28919,7 @@
         <v>2</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
         <v>22</v>
@@ -29076,7 +29076,7 @@
         <v>20</v>
       </c>
       <c r="CU31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CV31" t="n">
         <v>6</v>
@@ -29167,7 +29167,7 @@
         <v>10</v>
       </c>
       <c r="DX31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="DY31" t="n">
         <v>22</v>

--- a/Team-Data/2020-21/1-2-2020-21.xlsx
+++ b/Team-Data/2020-21/1-2-2020-21.xlsx
@@ -733,160 +733,160 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="H2" t="n">
         <v>48</v>
       </c>
       <c r="I2" t="n">
-        <v>41</v>
+        <v>42.2</v>
       </c>
       <c r="J2" t="n">
-        <v>88</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.466</v>
+        <v>0.476</v>
       </c>
       <c r="L2" t="n">
-        <v>15.3</v>
+        <v>16.2</v>
       </c>
       <c r="M2" t="n">
-        <v>38.3</v>
+        <v>39.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4</v>
+        <v>0.409</v>
       </c>
       <c r="O2" t="n">
-        <v>22.7</v>
+        <v>25.2</v>
       </c>
       <c r="P2" t="n">
-        <v>27.8</v>
+        <v>29.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.851</v>
       </c>
       <c r="R2" t="n">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="S2" t="n">
-        <v>37.3</v>
+        <v>38.2</v>
       </c>
       <c r="T2" t="n">
-        <v>49.2</v>
+        <v>49.4</v>
       </c>
       <c r="U2" t="n">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="V2" t="n">
-        <v>16</v>
+        <v>14.8</v>
       </c>
       <c r="W2" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="n">
         <v>4</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>120</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>8</v>
       </c>
       <c r="AN2" t="n">
         <v>3</v>
       </c>
       <c r="AO2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AR2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AT2" t="n">
         <v>2</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AX2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -996,28 +996,28 @@
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG3" t="n">
         <v>13</v>
       </c>
-      <c r="AG3" t="n">
-        <v>12</v>
-      </c>
       <c r="AH3" t="n">
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
@@ -1026,7 +1026,7 @@
         <v>11</v>
       </c>
       <c r="AO3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1035,7 +1035,7 @@
         <v>26</v>
       </c>
       <c r="AR3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AS3" t="n">
         <v>29</v>
@@ -1047,10 +1047,10 @@
         <v>22</v>
       </c>
       <c r="AV3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX3" t="n">
         <v>2</v>
@@ -1062,13 +1062,13 @@
         <v>7</v>
       </c>
       <c r="BA3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB3" t="n">
+        <v>17</v>
+      </c>
+      <c r="BC3" t="n">
         <v>16</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>15</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -1178,19 +1178,19 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG4" t="n">
         <v>13</v>
       </c>
-      <c r="AG4" t="n">
-        <v>12</v>
-      </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ4" t="n">
         <v>14</v>
@@ -1202,34 +1202,34 @@
         <v>5</v>
       </c>
       <c r="AM4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN4" t="n">
         <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
         <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR4" t="n">
         <v>13</v>
       </c>
       <c r="AS4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AT4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
         <v>20</v>
@@ -1241,13 +1241,13 @@
         <v>5</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC4" t="n">
         <v>7</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -1279,94 +1279,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="J5" t="n">
-        <v>90.2</v>
+        <v>89.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.445</v>
+        <v>0.452</v>
       </c>
       <c r="L5" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="M5" t="n">
         <v>35</v>
       </c>
       <c r="N5" t="n">
-        <v>0.362</v>
+        <v>0.36</v>
       </c>
       <c r="O5" t="n">
-        <v>15.3</v>
+        <v>13.8</v>
       </c>
       <c r="P5" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.697</v>
+        <v>0.651</v>
       </c>
       <c r="R5" t="n">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="S5" t="n">
-        <v>32.2</v>
+        <v>33.4</v>
       </c>
       <c r="T5" t="n">
-        <v>43.8</v>
+        <v>44.6</v>
       </c>
       <c r="U5" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="V5" t="n">
-        <v>16.3</v>
+        <v>17.2</v>
       </c>
       <c r="W5" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X5" t="n">
         <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.8</v>
+        <v>21.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>108.3</v>
+        <v>107.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3</v>
+        <v>-0.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
         <v>9</v>
@@ -1378,61 +1378,61 @@
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM5" t="n">
         <v>16</v>
       </c>
       <c r="AN5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AT5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>14</v>
       </c>
       <c r="AY5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>27</v>
+      </c>
+      <c r="BB5" t="n">
         <v>22</v>
       </c>
-      <c r="AZ5" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>20</v>
-      </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -1542,13 +1542,13 @@
         <v>1</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH6" t="n">
         <v>9</v>
@@ -1557,10 +1557,10 @@
         <v>16</v>
       </c>
       <c r="AJ6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1569,10 +1569,10 @@
         <v>14</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP6" t="n">
         <v>5</v>
@@ -1581,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS6" t="n">
         <v>19</v>
@@ -1590,19 +1590,19 @@
         <v>23</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV6" t="n">
         <v>29</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ6" t="n">
         <v>22</v>
@@ -1611,10 +1611,10 @@
         <v>1</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BC6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -1643,160 +1643,160 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="I7" t="n">
-        <v>41.5</v>
+        <v>42.2</v>
       </c>
       <c r="J7" t="n">
-        <v>89.7</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.463</v>
+        <v>0.472</v>
       </c>
       <c r="L7" t="n">
-        <v>10.3</v>
+        <v>11</v>
       </c>
       <c r="M7" t="n">
-        <v>27.8</v>
+        <v>27.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.371</v>
+        <v>0.399</v>
       </c>
       <c r="O7" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="P7" t="n">
-        <v>21.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="R7" t="n">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="S7" t="n">
-        <v>35</v>
+        <v>35.8</v>
       </c>
       <c r="T7" t="n">
-        <v>46.3</v>
+        <v>46.4</v>
       </c>
       <c r="U7" t="n">
-        <v>26.2</v>
+        <v>27.6</v>
       </c>
       <c r="V7" t="n">
-        <v>17</v>
+        <v>17.4</v>
       </c>
       <c r="W7" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA7" t="n">
         <v>19.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>108</v>
+        <v>110.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="AD7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH7" t="n">
         <v>1</v>
       </c>
-      <c r="AE7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>2</v>
-      </c>
       <c r="AI7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
         <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AM7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN7" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW7" t="n">
         <v>1</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>15</v>
+      </c>
+      <c r="BC7" t="n">
         <v>10</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>20</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>22</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>9</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -1903,22 +1903,22 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
         <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>27</v>
@@ -1936,13 +1936,13 @@
         <v>27</v>
       </c>
       <c r="AO8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>28</v>
@@ -1951,13 +1951,13 @@
         <v>22</v>
       </c>
       <c r="AT8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW8" t="n">
         <v>6</v>
@@ -1966,16 +1966,16 @@
         <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
       </c>
       <c r="BB8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC8" t="n">
         <v>8</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -2085,40 +2085,40 @@
         <v>-3</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF9" t="n">
         <v>27</v>
       </c>
-      <c r="AF9" t="n">
-        <v>25</v>
-      </c>
       <c r="AG9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH9" t="n">
         <v>4</v>
       </c>
       <c r="AI9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="n">
         <v>24</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP9" t="n">
         <v>10</v>
@@ -2130,16 +2130,16 @@
         <v>16</v>
       </c>
       <c r="AS9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW9" t="n">
         <v>21</v>
@@ -2151,13 +2151,13 @@
         <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
         <v>2</v>
       </c>
       <c r="BB9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
         <v>21</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -2234,16 +2234,16 @@
         <v>12.4</v>
       </c>
       <c r="S10" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="T10" t="n">
-        <v>48.2</v>
+        <v>48.4</v>
       </c>
       <c r="U10" t="n">
         <v>23.2</v>
       </c>
       <c r="V10" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="W10" t="n">
         <v>7.6</v>
@@ -2267,16 +2267,16 @@
         <v>-6.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF10" t="n">
         <v>27</v>
       </c>
-      <c r="AF10" t="n">
-        <v>25</v>
-      </c>
       <c r="AG10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH10" t="n">
         <v>1</v>
@@ -2285,7 +2285,7 @@
         <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2303,25 +2303,25 @@
         <v>17</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ10" t="n">
         <v>24</v>
       </c>
       <c r="AR10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS10" t="n">
         <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>19</v>
@@ -2330,13 +2330,13 @@
         <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB10" t="n">
         <v>18</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -2449,16 +2449,16 @@
         <v>-15.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH11" t="n">
         <v>9</v>
@@ -2473,55 +2473,55 @@
         <v>30</v>
       </c>
       <c r="AL11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN11" t="n">
         <v>30</v>
       </c>
       <c r="AO11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT11" t="n">
         <v>21</v>
       </c>
       <c r="AU11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
         <v>30</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -2553,160 +2553,160 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="H12" t="n">
-        <v>49.3</v>
+        <v>49.7</v>
       </c>
       <c r="I12" t="n">
-        <v>41.3</v>
+        <v>43</v>
       </c>
       <c r="J12" t="n">
-        <v>85</v>
+        <v>86.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.485</v>
+        <v>0.498</v>
       </c>
       <c r="L12" t="n">
         <v>13.3</v>
       </c>
       <c r="M12" t="n">
-        <v>37.8</v>
+        <v>36.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.351</v>
+        <v>0.364</v>
       </c>
       <c r="O12" t="n">
-        <v>19.5</v>
+        <v>20.3</v>
       </c>
       <c r="P12" t="n">
-        <v>25.8</v>
+        <v>26.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.757</v>
+        <v>0.763</v>
       </c>
       <c r="R12" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S12" t="n">
-        <v>35.5</v>
+        <v>33.3</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>41.7</v>
       </c>
       <c r="U12" t="n">
-        <v>23.3</v>
+        <v>26</v>
       </c>
       <c r="V12" t="n">
-        <v>16</v>
+        <v>16.7</v>
       </c>
       <c r="W12" t="n">
-        <v>8.300000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="X12" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>115.3</v>
+        <v>119.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="AD12" t="n">
         <v>30</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AF12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AH12" t="n">
         <v>3</v>
       </c>
       <c r="AI12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM12" t="n">
         <v>12</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>11</v>
-      </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
         <v>7</v>
       </c>
       <c r="AQ12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS12" t="n">
         <v>26</v>
       </c>
-      <c r="AS12" t="n">
-        <v>15</v>
-      </c>
       <c r="AT12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX12" t="n">
         <v>20</v>
       </c>
-      <c r="AU12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW12" t="n">
+      <c r="AY12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>13</v>
       </c>
-      <c r="AX12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>15</v>
-      </c>
       <c r="BA12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BB12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -2735,160 +2735,160 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
         <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>43.7</v>
+        <v>45.6</v>
       </c>
       <c r="J13" t="n">
-        <v>88.3</v>
+        <v>89.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.494</v>
+        <v>0.511</v>
       </c>
       <c r="L13" t="n">
-        <v>11.8</v>
+        <v>10.4</v>
       </c>
       <c r="M13" t="n">
-        <v>34</v>
+        <v>30.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.348</v>
+        <v>0.338</v>
       </c>
       <c r="O13" t="n">
         <v>15.2</v>
       </c>
       <c r="P13" t="n">
-        <v>20.2</v>
+        <v>20.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.752</v>
+        <v>0.738</v>
       </c>
       <c r="R13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="S13" t="n">
-        <v>33.8</v>
+        <v>35.2</v>
       </c>
       <c r="T13" t="n">
-        <v>41.3</v>
+        <v>43.2</v>
       </c>
       <c r="U13" t="n">
+        <v>28</v>
+      </c>
+      <c r="V13" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="W13" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="X13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" t="n">
         <v>27</v>
       </c>
-      <c r="V13" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="X13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AM13" t="n">
         <v>23</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>114.3</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>18</v>
       </c>
       <c r="AN13" t="n">
         <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR13" t="n">
         <v>25</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AS13" t="n">
         <v>17</v>
       </c>
-      <c r="AR13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>24</v>
-      </c>
       <c r="AT13" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AU13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ13" t="n">
         <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -2998,13 +2998,13 @@
         <v>1</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>9</v>
@@ -3013,7 +3013,7 @@
         <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK14" t="n">
         <v>12</v>
@@ -3025,10 +3025,10 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
         <v>22</v>
@@ -3040,19 +3040,19 @@
         <v>18</v>
       </c>
       <c r="AS14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT14" t="n">
         <v>26</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
@@ -3067,10 +3067,10 @@
         <v>30</v>
       </c>
       <c r="BB14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -3180,31 +3180,31 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI15" t="n">
         <v>3</v>
       </c>
-      <c r="AF15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
         <v>2</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1</v>
       </c>
       <c r="AL15" t="n">
         <v>10</v>
       </c>
       <c r="AM15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN15" t="n">
         <v>2</v>
@@ -3213,10 +3213,10 @@
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR15" t="n">
         <v>14</v>
@@ -3228,28 +3228,28 @@
         <v>5</v>
       </c>
       <c r="AU15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AW15" t="n">
         <v>26</v>
       </c>
       <c r="AX15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA15" t="n">
         <v>13</v>
       </c>
       <c r="BB15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC15" t="n">
         <v>2</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -3359,70 +3359,70 @@
         <v>-4.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH16" t="n">
         <v>4</v>
       </c>
       <c r="AI16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="n">
         <v>17</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>16</v>
       </c>
       <c r="AP16" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
         <v>15</v>
       </c>
       <c r="AR16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU16" t="n">
         <v>12</v>
       </c>
-      <c r="AS16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>10</v>
-      </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ16" t="n">
         <v>5</v>
@@ -3431,10 +3431,10 @@
         <v>27</v>
       </c>
       <c r="BB16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -3541,40 +3541,40 @@
         <v>-7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN17" t="n">
         <v>22</v>
       </c>
-      <c r="AM17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>21</v>
-      </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>14</v>
@@ -3592,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AV17" t="n">
         <v>30</v>
@@ -3607,16 +3607,16 @@
         <v>3</v>
       </c>
       <c r="AZ17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BC17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -3726,25 +3726,25 @@
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG18" t="n">
         <v>13</v>
       </c>
-      <c r="AG18" t="n">
-        <v>12</v>
-      </c>
       <c r="AH18" t="n">
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK18" t="n">
         <v>5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>4</v>
       </c>
       <c r="AL18" t="n">
         <v>1</v>
@@ -3759,28 +3759,28 @@
         <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
         <v>16</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT18" t="n">
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX18" t="n">
         <v>18</v>
@@ -3789,13 +3789,13 @@
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA18" t="n">
         <v>20</v>
       </c>
       <c r="BB18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC18" t="n">
         <v>1</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -3905,16 +3905,16 @@
         <v>-13</v>
       </c>
       <c r="AD19" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
         <v>9</v>
@@ -3923,22 +3923,22 @@
         <v>16</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK19" t="n">
         <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM19" t="n">
         <v>13</v>
       </c>
       <c r="AN19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP19" t="n">
         <v>27</v>
@@ -3947,7 +3947,7 @@
         <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3959,22 +3959,22 @@
         <v>26</v>
       </c>
       <c r="AV19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX19" t="n">
         <v>14</v>
       </c>
       <c r="AY19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -4009,94 +4009,94 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="K20" t="n">
-        <v>0.447</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
-        <v>10.7</v>
+        <v>10</v>
       </c>
       <c r="M20" t="n">
-        <v>33.2</v>
+        <v>32.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.322</v>
+        <v>0.311</v>
       </c>
       <c r="O20" t="n">
-        <v>19</v>
+        <v>15.6</v>
       </c>
       <c r="P20" t="n">
-        <v>27.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.655</v>
       </c>
       <c r="R20" t="n">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="S20" t="n">
-        <v>37.3</v>
+        <v>37.6</v>
       </c>
       <c r="T20" t="n">
-        <v>48.5</v>
+        <v>48.2</v>
       </c>
       <c r="U20" t="n">
-        <v>21.7</v>
+        <v>20.8</v>
       </c>
       <c r="V20" t="n">
-        <v>16.3</v>
+        <v>17</v>
       </c>
       <c r="W20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X20" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>16.8</v>
+        <v>16.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>22.8</v>
+        <v>21.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>104.7</v>
+        <v>101.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AF20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AH20" t="n">
         <v>9</v>
@@ -4105,61 +4105,61 @@
         <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>20</v>
       </c>
       <c r="AN20" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AQ20" t="n">
         <v>28</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS20" t="n">
         <v>6</v>
       </c>
       <c r="AT20" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AV20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
       </c>
       <c r="BA20" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BB20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC20" t="n">
         <v>9</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -4191,106 +4191,106 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>37.5</v>
+        <v>36.6</v>
       </c>
       <c r="J21" t="n">
-        <v>83.8</v>
+        <v>84</v>
       </c>
       <c r="K21" t="n">
-        <v>0.447</v>
+        <v>0.436</v>
       </c>
       <c r="L21" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="M21" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="N21" t="n">
-        <v>0.378</v>
+        <v>0.366</v>
       </c>
       <c r="O21" t="n">
-        <v>15.8</v>
+        <v>17</v>
       </c>
       <c r="P21" t="n">
-        <v>21.2</v>
+        <v>22.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R21" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S21" t="n">
-        <v>37.3</v>
+        <v>36.6</v>
       </c>
       <c r="T21" t="n">
-        <v>47.2</v>
+        <v>46.4</v>
       </c>
       <c r="U21" t="n">
         <v>23</v>
       </c>
       <c r="V21" t="n">
-        <v>17.8</v>
+        <v>18.2</v>
       </c>
       <c r="W21" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="X21" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.8</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>101.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3</v>
+        <v>-4.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
         <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>26</v>
@@ -4299,25 +4299,25 @@
         <v>27</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AQ21" t="n">
         <v>19</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AT21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU21" t="n">
         <v>20</v>
@@ -4326,16 +4326,16 @@
         <v>27</v>
       </c>
       <c r="AW21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>25</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>24</v>
       </c>
       <c r="BA21" t="n">
         <v>15</v>
@@ -4344,7 +4344,7 @@
         <v>30</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -4373,103 +4373,103 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J22" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L22" t="n">
         <v>12.8</v>
       </c>
       <c r="M22" t="n">
-        <v>39.4</v>
+        <v>39</v>
       </c>
       <c r="N22" t="n">
-        <v>0.325</v>
+        <v>0.327</v>
       </c>
       <c r="O22" t="n">
-        <v>13.4</v>
+        <v>12</v>
       </c>
       <c r="P22" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.623</v>
       </c>
       <c r="R22" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>38.2</v>
+        <v>36.3</v>
       </c>
       <c r="T22" t="n">
-        <v>46</v>
+        <v>44.5</v>
       </c>
       <c r="U22" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V22" t="n">
-        <v>17</v>
+        <v>18.3</v>
       </c>
       <c r="W22" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Z22" t="n">
-        <v>18.4</v>
+        <v>18.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.6</v>
+        <v>101.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.8</v>
+        <v>-10.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AH22" t="n">
         <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
         <v>21</v>
@@ -4478,55 +4478,55 @@
         <v>11</v>
       </c>
       <c r="AM22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>30</v>
       </c>
-      <c r="AP22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>29</v>
-      </c>
       <c r="AR22" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AT22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ22" t="n">
         <v>4</v>
       </c>
       <c r="BA22" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="BB22" t="n">
         <v>29</v>
       </c>
       <c r="BC22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -4555,142 +4555,142 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.667</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>41.5</v>
+        <v>41.8</v>
       </c>
       <c r="J23" t="n">
-        <v>94.5</v>
+        <v>91.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.439</v>
+        <v>0.455</v>
       </c>
       <c r="L23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M23" t="n">
-        <v>28.7</v>
+        <v>26.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.314</v>
+        <v>0.328</v>
       </c>
       <c r="O23" t="n">
-        <v>20</v>
+        <v>22.2</v>
       </c>
       <c r="P23" t="n">
-        <v>24.3</v>
+        <v>26.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.822</v>
+        <v>0.828</v>
       </c>
       <c r="R23" t="n">
-        <v>11.7</v>
+        <v>11</v>
       </c>
       <c r="S23" t="n">
-        <v>36.5</v>
+        <v>35.8</v>
       </c>
       <c r="T23" t="n">
-        <v>48.2</v>
+        <v>46.8</v>
       </c>
       <c r="U23" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="V23" t="n">
-        <v>11.7</v>
+        <v>12.8</v>
       </c>
       <c r="W23" t="n">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="X23" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="Y23" t="n">
         <v>5.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB23" t="n">
-        <v>112</v>
+        <v>114.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="AD23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF23" t="n">
         <v>1</v>
       </c>
-      <c r="AE23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>3</v>
-      </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH23" t="n">
         <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK23" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AN23" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AO23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP23" t="n">
         <v>6</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="AQ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW23" t="n">
         <v>11</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>12</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
@@ -4702,13 +4702,13 @@
         <v>3</v>
       </c>
       <c r="BA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC23" t="n">
         <v>12</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>12</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>13</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -4737,142 +4737,142 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>48</v>
       </c>
       <c r="I24" t="n">
-        <v>39.7</v>
+        <v>38.2</v>
       </c>
       <c r="J24" t="n">
-        <v>84.7</v>
+        <v>85.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.469</v>
+        <v>0.445</v>
       </c>
       <c r="L24" t="n">
-        <v>11.7</v>
+        <v>10.8</v>
       </c>
       <c r="M24" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="N24" t="n">
-        <v>0.359</v>
+        <v>0.338</v>
       </c>
       <c r="O24" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="P24" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.774</v>
+        <v>0.787</v>
       </c>
       <c r="R24" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="T24" t="n">
-        <v>47.7</v>
+        <v>48.2</v>
       </c>
       <c r="U24" t="n">
-        <v>24.2</v>
+        <v>22</v>
       </c>
       <c r="V24" t="n">
-        <v>18.2</v>
+        <v>17.4</v>
       </c>
       <c r="W24" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y24" t="n">
         <v>5.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.7</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>22</v>
+        <v>22.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.8</v>
+        <v>106.4</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF24" t="n">
         <v>1</v>
       </c>
       <c r="AG24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH24" t="n">
         <v>9</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AJ24" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AM24" t="n">
         <v>21</v>
       </c>
       <c r="AN24" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AO24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
       </c>
       <c r="AQ24" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AR24" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
       </c>
       <c r="AT24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW24" t="n">
         <v>8</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>7</v>
       </c>
       <c r="AX24" t="n">
         <v>1</v>
@@ -4881,16 +4881,16 @@
         <v>14</v>
       </c>
       <c r="AZ24" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB24" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BC24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -5015,31 +5015,31 @@
         <v>16</v>
       </c>
       <c r="AJ25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
         <v>6</v>
       </c>
       <c r="AM25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP25" t="n">
         <v>29</v>
       </c>
-      <c r="AP25" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR25" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
         <v>23</v>
@@ -5048,13 +5048,13 @@
         <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>5</v>
       </c>
       <c r="AW25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX25" t="n">
         <v>18</v>
@@ -5063,16 +5063,16 @@
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA25" t="n">
         <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -5179,16 +5179,16 @@
         <v>-1.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
         <v>4</v>
@@ -5200,46 +5200,46 @@
         <v>8</v>
       </c>
       <c r="AK26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP26" t="n">
         <v>12</v>
       </c>
-      <c r="AP26" t="n">
-        <v>13</v>
-      </c>
       <c r="AQ26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR26" t="n">
         <v>28</v>
       </c>
       <c r="AS26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY26" t="n">
         <v>21</v>
@@ -5251,10 +5251,10 @@
         <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -5283,160 +5283,160 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="I27" t="n">
-        <v>41</v>
+        <v>42.2</v>
       </c>
       <c r="J27" t="n">
-        <v>90.7</v>
+        <v>90.8</v>
       </c>
       <c r="K27" t="n">
-        <v>0.452</v>
+        <v>0.465</v>
       </c>
       <c r="L27" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="M27" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="N27" t="n">
-        <v>0.357</v>
+        <v>0.364</v>
       </c>
       <c r="O27" t="n">
-        <v>19.2</v>
+        <v>20</v>
       </c>
       <c r="P27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.737</v>
+        <v>0.741</v>
       </c>
       <c r="R27" t="n">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="S27" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="T27" t="n">
-        <v>46.3</v>
+        <v>46.2</v>
       </c>
       <c r="U27" t="n">
-        <v>22.5</v>
+        <v>24.8</v>
       </c>
       <c r="V27" t="n">
         <v>14.8</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="X27" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="AB27" t="n">
-        <v>111.3</v>
+        <v>114.8</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2</v>
+        <v>-0.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK27" t="n">
         <v>13</v>
       </c>
-      <c r="AG27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>17</v>
-      </c>
       <c r="AL27" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AQ27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU27" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AV27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW27" t="n">
         <v>24</v>
       </c>
       <c r="AX27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY27" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BC27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -5543,22 +5543,22 @@
         <v>-1.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH28" t="n">
         <v>9</v>
       </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>7</v>
@@ -5567,58 +5567,58 @@
         <v>15</v>
       </c>
       <c r="AL28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM28" t="n">
         <v>24</v>
       </c>
       <c r="AN28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ28" t="n">
         <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV28" t="n">
         <v>4</v>
       </c>
       <c r="AW28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY28" t="n">
         <v>25</v>
       </c>
       <c r="AZ28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB28" t="n">
         <v>14</v>
       </c>
       <c r="BC28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -5647,100 +5647,100 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H29" t="n">
         <v>48</v>
       </c>
       <c r="I29" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J29" t="n">
-        <v>89.8</v>
+        <v>89.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.414</v>
+        <v>0.413</v>
       </c>
       <c r="L29" t="n">
-        <v>15.4</v>
+        <v>15.8</v>
       </c>
       <c r="M29" t="n">
-        <v>46.4</v>
+        <v>46</v>
       </c>
       <c r="N29" t="n">
-        <v>0.332</v>
+        <v>0.342</v>
       </c>
       <c r="O29" t="n">
-        <v>14.6</v>
+        <v>11.8</v>
       </c>
       <c r="P29" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="R29" t="n">
+        <v>9</v>
+      </c>
+      <c r="S29" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>25</v>
+      </c>
+      <c r="V29" t="n">
         <v>17.8</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="R29" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="S29" t="n">
-        <v>35</v>
-      </c>
-      <c r="T29" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="U29" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="V29" t="n">
-        <v>16.2</v>
-      </c>
       <c r="W29" t="n">
-        <v>8.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X29" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>24.8</v>
+        <v>23.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.4</v>
+        <v>101.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.6</v>
+        <v>-2.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AE29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH29" t="n">
         <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
@@ -5749,46 +5749,46 @@
         <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM29" t="n">
         <v>1</v>
       </c>
       <c r="AN29" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV29" t="n">
         <v>26</v>
       </c>
-      <c r="AP29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ29" t="n">
+      <c r="AW29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX29" t="n">
         <v>3</v>
       </c>
-      <c r="AR29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>5</v>
-      </c>
       <c r="AY29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ29" t="n">
         <v>28</v>
@@ -5797,7 +5797,7 @@
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC29" t="n">
         <v>20</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -5907,25 +5907,25 @@
         <v>2.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH30" t="n">
         <v>9</v>
       </c>
       <c r="AI30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK30" t="n">
         <v>23</v>
@@ -5946,10 +5946,10 @@
         <v>23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS30" t="n">
         <v>5</v>
@@ -5958,31 +5958,31 @@
         <v>1</v>
       </c>
       <c r="AU30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW30" t="n">
         <v>28</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>29</v>
       </c>
       <c r="AX30" t="n">
         <v>26</v>
       </c>
       <c r="AY30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>2</v>
       </c>
       <c r="BA30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB30" t="n">
         <v>18</v>
       </c>
       <c r="BC30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
@@ -6092,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="AE31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF31" t="n">
         <v>30</v>
@@ -6107,19 +6107,19 @@
         <v>4</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
       </c>
       <c r="AM31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
         <v>10</v>
@@ -6128,7 +6128,7 @@
         <v>8</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR31" t="n">
         <v>20</v>
@@ -6143,13 +6143,13 @@
         <v>2</v>
       </c>
       <c r="AV31" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AW31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
         <v>1</v>
@@ -6158,10 +6158,10 @@
         <v>30</v>
       </c>
       <c r="BA31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC31" t="n">
         <v>19</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-2-2020-21</t>
+          <t>2021-01-02</t>
         </is>
       </c>
     </row>
